--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653286.186087885</v>
+        <v>1650992.590631291</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>86.71148563472845</v>
       </c>
       <c r="E2" t="n">
-        <v>108.4620326080086</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.43987397211012</v>
       </c>
       <c r="S4" t="n">
-        <v>105.3561439887638</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.6770057037263</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.1690567639045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>217.0914199928484</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>333.5426380090051</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391353</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>63.13355668550191</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>104.2590660175762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8000472740338</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419834048</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.8396132741332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824959</v>
+        <v>102.155784569983</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428369</v>
       </c>
       <c r="G22" t="n">
-        <v>54.32649042089666</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272868</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.14989839348831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>179.03758591542</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.5120075176649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.4044447618827</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.134398099142</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>1053.868699492392</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1530.025772611099</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1307.047291805835</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.928954309672</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>763.2444661037855</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>473.8272960668249</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348092</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751969</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.194928145218</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>856.4066755469739</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4207707573664</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1821.982360191951</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.215744761477</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452622</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452622</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718139</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5267,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>194.800778399831</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>194.800778399831</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797183</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>344.917417812166</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>197.0043242297729</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400733</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="E22" t="n">
-        <v>295.5818533952728</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="F22" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138431</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6236,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878356</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>45.44677382459402</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392836</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7828069546817</v>
+        <v>43.26526345294823</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864755</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>46.67206947361717</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.31997266427237</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823227</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038614</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897010.4191341915</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897010.4191341915</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341915</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985037</v>
@@ -26332,28 +26332,28 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312018</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,10 +26436,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112019</v>
+        <v>-811942.8160112021</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.2891451646</v>
+        <v>133170.2891451648</v>
       </c>
       <c r="D6" t="n">
-        <v>336609.0307572708</v>
+        <v>336609.0307572709</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547343</v>
+        <v>88128.4159200368</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.6156528274</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.877727392</v>
       </c>
       <c r="H6" t="n">
-        <v>413575.6156528279</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="I6" t="n">
-        <v>413575.6156528279</v>
+        <v>413540.877727392</v>
       </c>
       <c r="J6" t="n">
-        <v>245970.4378428453</v>
+        <v>245935.6999174096</v>
       </c>
       <c r="K6" t="n">
-        <v>364465.5229467734</v>
+        <v>364430.7850213376</v>
       </c>
       <c r="L6" t="n">
-        <v>413575.615652828</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="M6" t="n">
-        <v>328520.5877173161</v>
+        <v>328485.8497918802</v>
       </c>
       <c r="N6" t="n">
-        <v>413575.615652828</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="O6" t="n">
-        <v>413575.615652828</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="P6" t="n">
-        <v>413575.6156528281</v>
+        <v>413540.8777273921</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>267.9715559859545</v>
       </c>
       <c r="E2" t="n">
-        <v>273.4683374642532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>27.1176984474635</v>
       </c>
       <c r="S4" t="n">
-        <v>89.3063163729737</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.0752527664086</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>168.0688818921491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276446</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>77.3790876444483</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>85.50995931386565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929657</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890814</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357562001</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197792</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008912</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480954</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629905</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916455</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728667</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753348</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255787</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
